--- a/keydef.xlsx
+++ b/keydef.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mfuku\Documents\IdeaProjects\MakeKeyShortcutPict\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C226E5D8-71F3-4248-9BBB-8951C68C0334}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6A07CD-0680-4675-8ECB-A7E5A9FDE1E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21864" yWindow="1020" windowWidth="21012" windowHeight="11892" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="264" windowWidth="21012" windowHeight="11892" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="keydef" sheetId="1" r:id="rId1"/>
@@ -1315,8 +1315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1575,8 +1575,8 @@
         <v>2</v>
       </c>
       <c r="B24" s="1">
-        <f>$B$10+0*$B$1</f>
-        <v>266</v>
+        <f>$B$10+11*$B$1</f>
+        <v>1443</v>
       </c>
       <c r="C24" s="1">
         <f>$C$10</f>
